--- a/Starter_Files/Resources/crowdfunding.xlsx
+++ b/Starter_Files/Resources/crowdfunding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tberton/Desktop/nflx_data_2_Fall_22/02-Assignments/03-Crowdfunding_ETL/Solution/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrallen/Desktop/Crowdfunding_ETL/Starter_Files/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D07F55-B245-7C45-835B-956FDE250297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7F0B1E-E473-FF44-96E9-AA17C16ACDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="-18300" windowWidth="28560" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crowdfunding_info" sheetId="1" r:id="rId1"/>
@@ -6145,12 +6145,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6169,9 +6168,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6209,9 +6208,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6244,26 +6243,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6296,26 +6278,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6506,7 +6471,7 @@
     <col min="15" max="15" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
